--- a/docs/战斗角色简表.xlsx
+++ b/docs/战斗角色简表.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="30480" yWindow="0" windowWidth="8000" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="战斗角色简表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="535">
   <si>
     <t>角色id</t>
   </si>
@@ -1622,11 +1629,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1647,2310 +1673,2887 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0"/>
+  <cellStyleXfs count="121">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf fontId="0" applyFont="1" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="121">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="办公室">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="办公室">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="办公室">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D163"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="B44" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="B63" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="B75" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="B77" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="B83" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="B87" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="C89" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="C91" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="B93" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="B94" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="B95" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="B96" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="B99" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="B101" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="B108" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="B109" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="C111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="B112" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="B113" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="B114" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="B116" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B118" s="0" t="s">
+      <c r="B118" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B119" s="0" t="s">
+      <c r="B119" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B120" s="0" t="s">
+      <c r="B120" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B121" s="0" t="s">
+      <c r="B121" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B122" s="0" t="s">
+      <c r="B122" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C123" s="0" t="s">
+      <c r="C123" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B125" s="0" t="s">
+      <c r="B125" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B126" s="0" t="s">
+      <c r="B126" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B127" s="0" t="s">
+      <c r="B127" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="B128" s="0" t="s">
+      <c r="B128" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B129" s="0" t="s">
+      <c r="B129" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B130" s="0" t="s">
+      <c r="B130" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B131" s="0" t="s">
+      <c r="B131" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B133" s="0" t="s">
+      <c r="B133" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B134" s="0" t="s">
+      <c r="B134" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C135" s="0" t="s">
+      <c r="C135" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B136" s="0" t="s">
+      <c r="B136" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="C138" s="0" t="s">
+      <c r="C138" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="C139" s="0" t="s">
+      <c r="C139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B142" s="0" t="s">
+      <c r="B142" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B143" s="0" t="s">
+      <c r="B143" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C145" s="0" t="s">
+      <c r="C145" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D145" s="0" t="s">
+      <c r="D145" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="B146" s="0" t="s">
+      <c r="B146" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D146" s="0" t="s">
+      <c r="D146" s="1" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C147" s="0" t="s">
+      <c r="C147" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D147" s="0" t="s">
+      <c r="D147" s="1" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B148" s="0" t="s">
+      <c r="B148" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D148" s="0" t="s">
+      <c r="D148" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="C149" s="0" t="s">
+      <c r="C149" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D149" s="0" t="s">
+      <c r="D149" s="1" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B150" s="0" t="s">
+      <c r="B150" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D150" s="0" t="s">
+      <c r="D150" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="B151" s="0" t="s">
+      <c r="B151" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D151" s="0" t="s">
+      <c r="D151" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B152" s="0" t="s">
+      <c r="B152" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D152" s="0" t="s">
+      <c r="D152" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B153" s="0" t="s">
+      <c r="B153" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D153" s="0" t="s">
+      <c r="D153" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D154" s="0" t="s">
+      <c r="D154" s="1" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B155" s="0" t="s">
+      <c r="B155" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D155" s="0" t="s">
+      <c r="D155" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D156" s="0" t="s">
+      <c r="D156" s="1" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B157" s="0" t="s">
+      <c r="B157" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D157" s="0" t="s">
+      <c r="D157" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D158" s="0" t="s">
+      <c r="D158" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C159" s="0" t="s">
+      <c r="C159" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D159" s="0" t="s">
+      <c r="D159" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B160" s="0" t="s">
+      <c r="B160" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D160" s="0" t="s">
+      <c r="D160" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B161" s="0" t="s">
+      <c r="B161" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D161" s="0" t="s">
+      <c r="D161" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="0" t="s">
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B162" s="0" t="s">
+      <c r="B162" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D162" s="0" t="s">
+      <c r="D162" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B163" s="0" t="s">
+      <c r="B163" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="D163" s="0" t="s">
+      <c r="D163" s="1" t="s">
         <v>534</v>
       </c>
     </row>
   </sheetData>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/战斗角色简表.xlsx
+++ b/docs/战斗角色简表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="584">
   <si>
     <t>角色id</t>
   </si>
@@ -29,13 +29,133 @@
     <t>00000</t>
   </si>
   <si>
-    <t>主角测试</t>
-  </si>
-  <si>
-    <t>100001</t>
-  </si>
-  <si>
-    <t>10001|10000|10000</t>
+    <t>主角测试（少林）</t>
+  </si>
+  <si>
+    <t>104103</t>
+  </si>
+  <si>
+    <t>30401|30402</t>
+  </si>
+  <si>
+    <t>00001</t>
+  </si>
+  <si>
+    <t>主角测试（丐帮）</t>
+  </si>
+  <si>
+    <t>100105</t>
+  </si>
+  <si>
+    <t>10021|30102</t>
+  </si>
+  <si>
+    <t>000010</t>
+  </si>
+  <si>
+    <t>主角测试（岳家军）</t>
+  </si>
+  <si>
+    <t>101104</t>
+  </si>
+  <si>
+    <t>30201|30202</t>
+  </si>
+  <si>
+    <t>00001000</t>
+  </si>
+  <si>
+    <t>主角测试（全真）</t>
+  </si>
+  <si>
+    <t>102203</t>
+  </si>
+  <si>
+    <t>30301|16001</t>
+  </si>
+  <si>
+    <t>000010000</t>
+  </si>
+  <si>
+    <t>主角测试（逍遥）</t>
+  </si>
+  <si>
+    <t>105103</t>
+  </si>
+  <si>
+    <t>30501|30502</t>
+  </si>
+  <si>
+    <t>0000100001</t>
+  </si>
+  <si>
+    <t>主角测试（大理）</t>
+  </si>
+  <si>
+    <t>100203</t>
+  </si>
+  <si>
+    <t>10015|30601</t>
+  </si>
+  <si>
+    <t>000010001</t>
+  </si>
+  <si>
+    <t>主角测试（新手剑）</t>
+  </si>
+  <si>
+    <t>102002</t>
+  </si>
+  <si>
+    <t>12002</t>
+  </si>
+  <si>
+    <t>000010002</t>
+  </si>
+  <si>
+    <t>主角测试（新手刀）</t>
+  </si>
+  <si>
+    <t>103004</t>
+  </si>
+  <si>
+    <t>14001</t>
+  </si>
+  <si>
+    <t>000010003</t>
+  </si>
+  <si>
+    <t>主角测试（新手枪）</t>
+  </si>
+  <si>
+    <t>101005</t>
+  </si>
+  <si>
+    <t>11002</t>
+  </si>
+  <si>
+    <t>000010004</t>
+  </si>
+  <si>
+    <t>主角测试（新手棍）</t>
+  </si>
+  <si>
+    <t>104003</t>
+  </si>
+  <si>
+    <t>13001</t>
+  </si>
+  <si>
+    <t>000010005</t>
+  </si>
+  <si>
+    <t>主角测试（新手掌）</t>
+  </si>
+  <si>
+    <t>100005</t>
+  </si>
+  <si>
+    <t>10001</t>
   </si>
   <si>
     <t>00001001</t>
@@ -278,9 +398,6 @@
     <t>100301</t>
   </si>
   <si>
-    <t>10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10006</t>
-  </si>
-  <si>
     <t>02002006</t>
   </si>
   <si>
@@ -383,7 +500,7 @@
     <t>105201</t>
   </si>
   <si>
-    <t>15002|10008|10009</t>
+    <t>15002</t>
   </si>
   <si>
     <t>06002002</t>
@@ -494,7 +611,7 @@
     <t>104205</t>
   </si>
   <si>
-    <t>13003|10011|15003</t>
+    <t>13003</t>
   </si>
   <si>
     <t>08001001</t>
@@ -524,7 +641,7 @@
     <t>100304</t>
   </si>
   <si>
-    <t>10010|16001|15012</t>
+    <t>10010</t>
   </si>
   <si>
     <t>09002002</t>
@@ -563,7 +680,7 @@
     <t>104206</t>
   </si>
   <si>
-    <t>10010|13004|16003</t>
+    <t>10020</t>
   </si>
   <si>
     <t>10001002</t>
@@ -647,7 +764,7 @@
     <t>叛军将领</t>
   </si>
   <si>
-    <t>10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|10000|40034</t>
+    <t>40034</t>
   </si>
   <si>
     <t>12002002</t>
@@ -680,7 +797,7 @@
     <t>102105</t>
   </si>
   <si>
-    <t>10012|12011|16005</t>
+    <t>10012</t>
   </si>
   <si>
     <t>13002002</t>
@@ -929,7 +1046,7 @@
     <t>102106</t>
   </si>
   <si>
-    <t>12011|16005|10013</t>
+    <t>12011</t>
   </si>
   <si>
     <t>18002002</t>
@@ -1259,6 +1376,9 @@
     <t>100303</t>
   </si>
   <si>
+    <t>10017</t>
+  </si>
+  <si>
     <t>25002003</t>
   </si>
   <si>
@@ -1307,7 +1427,7 @@
     <t>106002</t>
   </si>
   <si>
-    <t>10019|15011|16003</t>
+    <t>10019</t>
   </si>
   <si>
     <t>26002002</t>
@@ -1689,7 +1809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1913,2082 +2033,2222 @@
         <v>61</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B42" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="C42" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="D42" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>182</v>
+        <v>58</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>97</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>197</v>
+        <v>142</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>225</v>
+        <v>70</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>247</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>250</v>
+        <v>142</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>250</v>
+        <v>142</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>291</v>
+        <v>70</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>65</v>
+        <v>289</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>229</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>250</v>
+        <v>105</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>250</v>
+        <v>326</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>326</v>
+        <v>58</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>152</v>
+        <v>343</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>244</v>
+        <v>344</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>342</v>
+        <v>142</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>346</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>205</v>
+        <v>356</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>351</v>
+        <v>289</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>204</v>
+        <v>289</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>204</v>
+        <v>365</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>364</v>
+        <v>105</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>131</v>
+        <v>372</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>367</v>
+        <v>191</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>361</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>30</v>
+        <v>377</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>30</v>
+        <v>381</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>379</v>
+        <v>243</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>380</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>387</v>
+        <v>243</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>398</v>
+        <v>170</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="B120" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="D120" s="0" t="s">
         <v>400</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>204</v>
-      </c>
-      <c r="D120" s="0" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>410</v>
+        <v>70</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>204</v>
+        <v>426</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>434</v>
+        <v>243</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>438</v>
+        <v>105</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>442</v>
+        <v>74</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>10</v>
+        <v>474</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>11</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>10</v>
+        <v>478</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>11</v>
+        <v>479</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>30</v>
+        <v>482</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>65</v>
+        <v>486</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>65</v>
+        <v>490</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>204</v>
+        <v>494</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>490</v>
+        <v>70</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>467</v>
+        <v>507</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>499</v>
+        <v>50</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>500</v>
+        <v>51</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>503</v>
+        <v>51</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>204</v>
+        <v>70</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>515</v>
+        <v>243</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>204</v>
+        <v>530</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>204</v>
+        <v>507</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>30</v>
+        <v>539</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>30</v>
+        <v>243</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>542</v>
+        <v>142</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>543</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>555</v>
+      </c>
+      <c r="D165" s="0" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="0" t="s">
+        <v>557</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D166" s="0" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D167" s="0" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="0" t="s">
+        <v>563</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D168" s="0" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="0" t="s">
+        <v>565</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D169" s="0" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="0" t="s">
+        <v>568</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D170" s="0" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D171" s="0" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="0" t="s">
+        <v>574</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D172" s="0" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="0" t="s">
+        <v>577</v>
+      </c>
+      <c r="B173" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="D173" s="0" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B174" s="0" t="s">
+        <v>581</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="D174" s="0" t="s">
+        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/docs/战斗角色简表.xlsx
+++ b/docs/战斗角色简表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="667">
   <si>
     <t>角色id</t>
   </si>
@@ -1766,37 +1766,253 @@
     <t>金国守卫</t>
   </si>
   <si>
+    <t>31002002</t>
+  </si>
+  <si>
+    <t>金国都尉</t>
+  </si>
+  <si>
+    <t>31002003</t>
+  </si>
+  <si>
+    <t>近卫高手</t>
+  </si>
+  <si>
+    <t>31002004</t>
+  </si>
+  <si>
+    <t>近卫铁浮图</t>
+  </si>
+  <si>
+    <t>31002005</t>
+  </si>
+  <si>
+    <t>近卫妖姬</t>
+  </si>
+  <si>
+    <t>31002006</t>
+  </si>
+  <si>
+    <t>转生金兀术</t>
+  </si>
+  <si>
+    <t>32002001</t>
+  </si>
+  <si>
+    <t>炎龙</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>32002002</t>
+  </si>
+  <si>
+    <t>朱雀</t>
+  </si>
+  <si>
+    <t>32002003</t>
+  </si>
+  <si>
+    <t>冰狼</t>
+  </si>
+  <si>
+    <t>32002004</t>
+  </si>
+  <si>
+    <t>仙鹤</t>
+  </si>
+  <si>
+    <t>32002005</t>
+  </si>
+  <si>
+    <t>黑虎</t>
+  </si>
+  <si>
+    <t>32002006</t>
+  </si>
+  <si>
+    <t>神兽</t>
+  </si>
+  <si>
+    <t>32002007</t>
+  </si>
+  <si>
+    <t>金军大将</t>
+  </si>
+  <si>
+    <t>32002008</t>
+  </si>
+  <si>
+    <t>柴统领</t>
+  </si>
+  <si>
+    <t>32002009</t>
+  </si>
+  <si>
+    <t>落石机关</t>
+  </si>
+  <si>
+    <t>32002010</t>
+  </si>
+  <si>
+    <t>贾似道</t>
+  </si>
+  <si>
+    <t>33002001</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>33002002</t>
+  </si>
+  <si>
+    <t>腐尸</t>
+  </si>
+  <si>
+    <t>33002003</t>
+  </si>
+  <si>
+    <t>沼泽腐尸</t>
+  </si>
+  <si>
+    <t>33002004</t>
+  </si>
+  <si>
+    <t>冰晶腐尸</t>
+  </si>
+  <si>
+    <t>33002005</t>
+  </si>
+  <si>
+    <t>蒸腾腐尸</t>
+  </si>
+  <si>
+    <t>33002006</t>
+  </si>
+  <si>
+    <t>坚硬腐尸</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>31002002</t>
-  </si>
-  <si>
-    <t>金国都尉</t>
-  </si>
-  <si>
-    <t>31002003</t>
-  </si>
-  <si>
-    <t>金国校尉</t>
-  </si>
-  <si>
-    <t>31002004</t>
-  </si>
-  <si>
-    <t>金国将军</t>
-  </si>
-  <si>
-    <t>31002005</t>
-  </si>
-  <si>
-    <t>金国上将军</t>
-  </si>
-  <si>
-    <t>31002006</t>
-  </si>
-  <si>
-    <t>金兀术</t>
+    <t>33002007</t>
+  </si>
+  <si>
+    <t>丧尸</t>
+  </si>
+  <si>
+    <t>33002008</t>
+  </si>
+  <si>
+    <t>高手僵尸</t>
+  </si>
+  <si>
+    <t>33002009</t>
+  </si>
+  <si>
+    <t>变异将领</t>
+  </si>
+  <si>
+    <t>33002010</t>
+  </si>
+  <si>
+    <t>超神李天道</t>
+  </si>
+  <si>
+    <t>200026</t>
+  </si>
+  <si>
+    <t>34002001</t>
+  </si>
+  <si>
+    <t>慕容龙城</t>
+  </si>
+  <si>
+    <t>34002002</t>
+  </si>
+  <si>
+    <t>角木蛟</t>
+  </si>
+  <si>
+    <t>34002003</t>
+  </si>
+  <si>
+    <t>亢金龙</t>
+  </si>
+  <si>
+    <t>34002004</t>
+  </si>
+  <si>
+    <t>氐土貉</t>
+  </si>
+  <si>
+    <t>34002005</t>
+  </si>
+  <si>
+    <t>房日兔</t>
+  </si>
+  <si>
+    <t>34002006</t>
+  </si>
+  <si>
+    <t>心月狐</t>
+  </si>
+  <si>
+    <t>34002007</t>
+  </si>
+  <si>
+    <t>尾火虎</t>
+  </si>
+  <si>
+    <t>34002008</t>
+  </si>
+  <si>
+    <t>箕水豹</t>
+  </si>
+  <si>
+    <t>34002009</t>
+  </si>
+  <si>
+    <t>斗木獬</t>
+  </si>
+  <si>
+    <t>34002010</t>
+  </si>
+  <si>
+    <t>牛金牛</t>
+  </si>
+  <si>
+    <t>34002011</t>
+  </si>
+  <si>
+    <t>女土蝠</t>
+  </si>
+  <si>
+    <t>34002012</t>
+  </si>
+  <si>
+    <t>虚日鼠</t>
+  </si>
+  <si>
+    <t>34002013</t>
+  </si>
+  <si>
+    <t>危月燕</t>
+  </si>
+  <si>
+    <t>34002014</t>
+  </si>
+  <si>
+    <t>蒙古精锐骑兵</t>
+  </si>
+  <si>
+    <t>34002015</t>
+  </si>
+  <si>
+    <t>蒙古精锐刺客</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +2058,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2864,10 +3080,10 @@
         <v>256</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>58</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74">
@@ -4292,80 +4508,570 @@
         <v>583</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
+        <v>584</v>
+      </c>
+      <c r="B176" s="0" t="s">
         <v>585</v>
       </c>
-      <c r="B176" s="0" t="s">
-        <v>586</v>
-      </c>
       <c r="C176" s="0" t="s">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>584</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
+        <v>586</v>
+      </c>
+      <c r="B177" s="0" t="s">
         <v>587</v>
       </c>
-      <c r="B177" s="0" t="s">
-        <v>588</v>
-      </c>
       <c r="C177" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
+        <v>588</v>
+      </c>
+      <c r="B178" s="0" t="s">
         <v>589</v>
       </c>
-      <c r="B178" s="0" t="s">
-        <v>590</v>
-      </c>
       <c r="C178" s="0" t="s">
-        <v>50</v>
+        <v>190</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
+        <v>590</v>
+      </c>
+      <c r="B179" s="0" t="s">
         <v>591</v>
       </c>
-      <c r="B179" s="0" t="s">
-        <v>592</v>
-      </c>
       <c r="C179" s="0" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
+        <v>592</v>
+      </c>
+      <c r="B180" s="0" t="s">
         <v>593</v>
       </c>
-      <c r="B180" s="0" t="s">
+      <c r="C180" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D180" s="0" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="C180" s="0" t="s">
-        <v>584</v>
-      </c>
-      <c r="D180" s="0" t="s">
-        <v>584</v>
+      <c r="B181" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D181" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="0" t="s">
+        <v>597</v>
+      </c>
+      <c r="B182" s="0" t="s">
+        <v>598</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D182" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B183" s="0" t="s">
+        <v>600</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D183" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="0" t="s">
+        <v>601</v>
+      </c>
+      <c r="B184" s="0" t="s">
+        <v>602</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D184" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="0" t="s">
+        <v>603</v>
+      </c>
+      <c r="B185" s="0" t="s">
+        <v>604</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D185" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="0" t="s">
+        <v>605</v>
+      </c>
+      <c r="B186" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D186" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="B187" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D187" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="B188" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D188" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="B189" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D189" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="B190" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D190" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="B191" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D191" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B192" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B193" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D193" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B194" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D194" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B195" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D195" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="B196" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D196" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B197" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D197" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B198" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D198" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B199" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D199" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B200" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="D200" s="0" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="B201" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="D201" s="0" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B202" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D202" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="B203" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D203" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B204" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D204" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B205" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B206" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B207" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B208" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D208" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="B209" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D209" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B210" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D210" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B211" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D211" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B212" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D212" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="B213" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D213" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="B214" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D214" s="0" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B215" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="D215" s="0" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/docs/战斗角色简表.xlsx
+++ b/docs/战斗角色简表.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="729">
   <si>
     <t>角色id</t>
   </si>
@@ -26,6 +26,15 @@
     <t>秘籍</t>
   </si>
   <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>测试沙包</t>
+  </si>
+  <si>
+    <t>212001</t>
+  </si>
+  <si>
     <t>00000</t>
   </si>
   <si>
@@ -326,9 +335,6 @@
     <t>强盗</t>
   </si>
   <si>
-    <t>212001</t>
-  </si>
-  <si>
     <t>40004</t>
   </si>
   <si>
@@ -659,7 +665,7 @@
     <t>燕子坞奸细</t>
   </si>
   <si>
-    <t>40027</t>
+    <t>40107</t>
   </si>
   <si>
     <t>09002004</t>
@@ -668,6 +674,21 @@
     <t>燕子坞叛徒</t>
   </si>
   <si>
+    <t>40108</t>
+  </si>
+  <si>
+    <t>09002005</t>
+  </si>
+  <si>
+    <t>魔教杀手</t>
+  </si>
+  <si>
+    <t>205001</t>
+  </si>
+  <si>
+    <t>40155</t>
+  </si>
+  <si>
     <t>10001001</t>
   </si>
   <si>
@@ -740,9 +761,6 @@
     <t>魔教密探甲</t>
   </si>
   <si>
-    <t>205001</t>
-  </si>
-  <si>
     <t>40032</t>
   </si>
   <si>
@@ -770,6 +788,9 @@
     <t>精锐宋兵</t>
   </si>
   <si>
+    <t>40115</t>
+  </si>
+  <si>
     <t>12002003</t>
   </si>
   <si>
@@ -785,6 +806,9 @@
     <t>山谷强盗</t>
   </si>
   <si>
+    <t>40116</t>
+  </si>
+  <si>
     <t>13002001</t>
   </si>
   <si>
@@ -908,7 +932,7 @@
     <t>安护余孽</t>
   </si>
   <si>
-    <t>40045</t>
+    <t>40123</t>
   </si>
   <si>
     <t>15002005</t>
@@ -917,213 +941,225 @@
     <t>魔教密使甲</t>
   </si>
   <si>
+    <t>40124</t>
+  </si>
+  <si>
+    <t>15002006</t>
+  </si>
+  <si>
+    <t>蒙古骑兵</t>
+  </si>
+  <si>
+    <t>40047</t>
+  </si>
+  <si>
+    <t>16002001</t>
+  </si>
+  <si>
+    <t>郝大通</t>
+  </si>
+  <si>
+    <t>12006|16001</t>
+  </si>
+  <si>
+    <t>16002002</t>
+  </si>
+  <si>
+    <t>刘处玄</t>
+  </si>
+  <si>
+    <t>12007|16001</t>
+  </si>
+  <si>
+    <t>16002003</t>
+  </si>
+  <si>
+    <t>杨益樵</t>
+  </si>
+  <si>
+    <t>200011</t>
+  </si>
+  <si>
+    <t>40048</t>
+  </si>
+  <si>
+    <t>16002004</t>
+  </si>
+  <si>
+    <t>刑狱府奸细</t>
+  </si>
+  <si>
+    <t>40049</t>
+  </si>
+  <si>
+    <t>16002005</t>
+  </si>
+  <si>
+    <t>魔教密使乙</t>
+  </si>
+  <si>
+    <t>40120</t>
+  </si>
+  <si>
+    <t>16002006</t>
+  </si>
+  <si>
+    <t>蒙古细作</t>
+  </si>
+  <si>
+    <t>206001</t>
+  </si>
+  <si>
+    <t>40121</t>
+  </si>
+  <si>
+    <t>17002001</t>
+  </si>
+  <si>
+    <t>李莫愁</t>
+  </si>
+  <si>
+    <t>106005</t>
+  </si>
+  <si>
+    <t>15004</t>
+  </si>
+  <si>
+    <t>17002002</t>
+  </si>
+  <si>
+    <t>丁向臣</t>
+  </si>
+  <si>
+    <t>200012</t>
+  </si>
+  <si>
+    <t>40051</t>
+  </si>
+  <si>
+    <t>17002003</t>
+  </si>
+  <si>
+    <t>江武营叛军乙</t>
+  </si>
+  <si>
+    <t>40117</t>
+  </si>
+  <si>
+    <t>17002004</t>
+  </si>
+  <si>
+    <t>流寇</t>
+  </si>
+  <si>
+    <t>40052</t>
+  </si>
+  <si>
+    <t>17002005</t>
+  </si>
+  <si>
+    <t>大月氏武士</t>
+  </si>
+  <si>
+    <t>40053</t>
+  </si>
+  <si>
+    <t>18002001</t>
+  </si>
+  <si>
+    <t>小龙女</t>
+  </si>
+  <si>
+    <t>102106</t>
+  </si>
+  <si>
+    <t>12011</t>
+  </si>
+  <si>
+    <t>18002002</t>
+  </si>
+  <si>
+    <t>赵志敬</t>
+  </si>
+  <si>
+    <t>200013</t>
+  </si>
+  <si>
+    <t>40054</t>
+  </si>
+  <si>
+    <t>18002003</t>
+  </si>
+  <si>
+    <t>全真弟子</t>
+  </si>
+  <si>
+    <t>40055</t>
+  </si>
+  <si>
+    <t>18002004</t>
+  </si>
+  <si>
+    <t>魔教细作乙</t>
+  </si>
+  <si>
+    <t>19002001</t>
+  </si>
+  <si>
+    <t>马钰</t>
+  </si>
+  <si>
+    <t>12008|16001</t>
+  </si>
+  <si>
+    <t>19002002</t>
+  </si>
+  <si>
+    <t>丘处机</t>
+  </si>
+  <si>
+    <t>12009|16001</t>
+  </si>
+  <si>
+    <t>19002003</t>
+  </si>
+  <si>
+    <t>孙不二</t>
+  </si>
+  <si>
+    <t>12010|16001</t>
+  </si>
+  <si>
+    <t>19002004</t>
+  </si>
+  <si>
+    <t>太仓道长</t>
+  </si>
+  <si>
+    <t>200014</t>
+  </si>
+  <si>
+    <t>40056</t>
+  </si>
+  <si>
+    <t>19002005</t>
+  </si>
+  <si>
+    <t>魔教长老</t>
+  </si>
+  <si>
+    <t>40057</t>
+  </si>
+  <si>
+    <t>19002006</t>
+  </si>
+  <si>
+    <t>魔教密使丙</t>
+  </si>
+  <si>
     <t>40046</t>
   </si>
   <si>
-    <t>15002006</t>
-  </si>
-  <si>
-    <t>蒙古骑兵</t>
-  </si>
-  <si>
-    <t>40047</t>
-  </si>
-  <si>
-    <t>16002001</t>
-  </si>
-  <si>
-    <t>郝大通</t>
-  </si>
-  <si>
-    <t>12006|16001</t>
-  </si>
-  <si>
-    <t>16002002</t>
-  </si>
-  <si>
-    <t>刘处玄</t>
-  </si>
-  <si>
-    <t>12007|16001</t>
-  </si>
-  <si>
-    <t>16002003</t>
-  </si>
-  <si>
-    <t>杨益樵</t>
-  </si>
-  <si>
-    <t>200011</t>
-  </si>
-  <si>
-    <t>40048</t>
-  </si>
-  <si>
-    <t>16002004</t>
-  </si>
-  <si>
-    <t>刑狱府奸细</t>
-  </si>
-  <si>
-    <t>40049</t>
-  </si>
-  <si>
-    <t>16002005</t>
-  </si>
-  <si>
-    <t>魔教密使乙</t>
-  </si>
-  <si>
-    <t>16002006</t>
-  </si>
-  <si>
-    <t>蒙古细作</t>
-  </si>
-  <si>
-    <t>40050</t>
-  </si>
-  <si>
-    <t>17002001</t>
-  </si>
-  <si>
-    <t>李莫愁</t>
-  </si>
-  <si>
-    <t>106005</t>
-  </si>
-  <si>
-    <t>15004</t>
-  </si>
-  <si>
-    <t>17002002</t>
-  </si>
-  <si>
-    <t>丁向臣</t>
-  </si>
-  <si>
-    <t>200012</t>
-  </si>
-  <si>
-    <t>40051</t>
-  </si>
-  <si>
-    <t>17002003</t>
-  </si>
-  <si>
-    <t>江武营叛军乙</t>
-  </si>
-  <si>
-    <t>17002004</t>
-  </si>
-  <si>
-    <t>流寇</t>
-  </si>
-  <si>
-    <t>40052</t>
-  </si>
-  <si>
-    <t>17002005</t>
-  </si>
-  <si>
-    <t>大月氏武士</t>
-  </si>
-  <si>
-    <t>40053</t>
-  </si>
-  <si>
-    <t>18002001</t>
-  </si>
-  <si>
-    <t>小龙女</t>
-  </si>
-  <si>
-    <t>102106</t>
-  </si>
-  <si>
-    <t>12011</t>
-  </si>
-  <si>
-    <t>18002002</t>
-  </si>
-  <si>
-    <t>赵志敬</t>
-  </si>
-  <si>
-    <t>200013</t>
-  </si>
-  <si>
-    <t>40054</t>
-  </si>
-  <si>
-    <t>18002003</t>
-  </si>
-  <si>
-    <t>全真弟子</t>
-  </si>
-  <si>
-    <t>40055</t>
-  </si>
-  <si>
-    <t>18002004</t>
-  </si>
-  <si>
-    <t>魔教细作乙</t>
-  </si>
-  <si>
-    <t>19002001</t>
-  </si>
-  <si>
-    <t>马钰</t>
-  </si>
-  <si>
-    <t>12008|16001</t>
-  </si>
-  <si>
-    <t>19002002</t>
-  </si>
-  <si>
-    <t>丘处机</t>
-  </si>
-  <si>
-    <t>12009|16001</t>
-  </si>
-  <si>
-    <t>19002003</t>
-  </si>
-  <si>
-    <t>孙不二</t>
-  </si>
-  <si>
-    <t>12010|16001</t>
-  </si>
-  <si>
-    <t>19002004</t>
-  </si>
-  <si>
-    <t>太仓道长</t>
-  </si>
-  <si>
-    <t>200014</t>
-  </si>
-  <si>
-    <t>40056</t>
-  </si>
-  <si>
-    <t>19002005</t>
-  </si>
-  <si>
-    <t>魔教长老</t>
-  </si>
-  <si>
-    <t>40057</t>
-  </si>
-  <si>
-    <t>19002006</t>
-  </si>
-  <si>
-    <t>魔教密使丙</t>
-  </si>
-  <si>
     <t>19002007</t>
   </si>
   <si>
@@ -1295,7 +1331,7 @@
     <t>蒙古精兵</t>
   </si>
   <si>
-    <t>40070</t>
+    <t>40137</t>
   </si>
   <si>
     <t>23002005</t>
@@ -1304,6 +1340,9 @@
     <t>金国高手乙</t>
   </si>
   <si>
+    <t>40138</t>
+  </si>
+  <si>
     <t>24002001</t>
   </si>
   <si>
@@ -1766,43 +1805,61 @@
     <t>金国守卫</t>
   </si>
   <si>
+    <t>40101</t>
+  </si>
+  <si>
     <t>31002002</t>
   </si>
   <si>
     <t>金国都尉</t>
   </si>
   <si>
+    <t>40102</t>
+  </si>
+  <si>
     <t>31002003</t>
   </si>
   <si>
     <t>近卫高手</t>
   </si>
   <si>
+    <t>40103</t>
+  </si>
+  <si>
     <t>31002004</t>
   </si>
   <si>
     <t>近卫铁浮图</t>
   </si>
   <si>
+    <t>40104</t>
+  </si>
+  <si>
     <t>31002005</t>
   </si>
   <si>
     <t>近卫妖姬</t>
   </si>
   <si>
+    <t>40105</t>
+  </si>
+  <si>
     <t>31002006</t>
   </si>
   <si>
     <t>转生金兀术</t>
   </si>
   <si>
+    <t>40106</t>
+  </si>
+  <si>
     <t>32002001</t>
   </si>
   <si>
     <t>炎龙</t>
   </si>
   <si>
-    <t>10000</t>
+    <t>40109</t>
   </si>
   <si>
     <t>32002002</t>
@@ -1811,91 +1868,133 @@
     <t>朱雀</t>
   </si>
   <si>
+    <t>40110</t>
+  </si>
+  <si>
     <t>32002003</t>
   </si>
   <si>
     <t>冰狼</t>
   </si>
   <si>
+    <t>40111</t>
+  </si>
+  <si>
     <t>32002004</t>
   </si>
   <si>
     <t>仙鹤</t>
   </si>
   <si>
+    <t>40112</t>
+  </si>
+  <si>
     <t>32002005</t>
   </si>
   <si>
     <t>黑虎</t>
   </si>
   <si>
+    <t>40113</t>
+  </si>
+  <si>
     <t>32002006</t>
   </si>
   <si>
     <t>神兽</t>
   </si>
   <si>
+    <t>40114</t>
+  </si>
+  <si>
     <t>32002007</t>
   </si>
   <si>
     <t>金军大将</t>
   </si>
   <si>
+    <t>40119</t>
+  </si>
+  <si>
     <t>32002008</t>
   </si>
   <si>
     <t>柴统领</t>
   </si>
   <si>
+    <t>40122</t>
+  </si>
+  <si>
     <t>32002009</t>
   </si>
   <si>
     <t>落石机关</t>
   </si>
   <si>
+    <t>40125</t>
+  </si>
+  <si>
     <t>32002010</t>
   </si>
   <si>
     <t>贾似道</t>
   </si>
   <si>
+    <t>40126</t>
+  </si>
+  <si>
     <t>33002001</t>
   </si>
   <si>
     <t>僵尸</t>
   </si>
   <si>
+    <t>40127</t>
+  </si>
+  <si>
     <t>33002002</t>
   </si>
   <si>
     <t>腐尸</t>
   </si>
   <si>
+    <t>40128</t>
+  </si>
+  <si>
     <t>33002003</t>
   </si>
   <si>
     <t>沼泽腐尸</t>
   </si>
   <si>
+    <t>40131</t>
+  </si>
+  <si>
     <t>33002004</t>
   </si>
   <si>
     <t>冰晶腐尸</t>
   </si>
   <si>
+    <t>40132</t>
+  </si>
+  <si>
     <t>33002005</t>
   </si>
   <si>
     <t>蒸腾腐尸</t>
   </si>
   <si>
+    <t>40133</t>
+  </si>
+  <si>
     <t>33002006</t>
   </si>
   <si>
     <t>坚硬腐尸</t>
   </si>
   <si>
-    <t/>
+    <t>40134</t>
   </si>
   <si>
     <t>33002007</t>
@@ -1904,18 +2003,27 @@
     <t>丧尸</t>
   </si>
   <si>
+    <t>40130</t>
+  </si>
+  <si>
     <t>33002008</t>
   </si>
   <si>
     <t>高手僵尸</t>
   </si>
   <si>
+    <t>40129</t>
+  </si>
+  <si>
     <t>33002009</t>
   </si>
   <si>
     <t>变异将领</t>
   </si>
   <si>
+    <t>40135</t>
+  </si>
+  <si>
     <t>33002010</t>
   </si>
   <si>
@@ -1925,94 +2033,172 @@
     <t>200026</t>
   </si>
   <si>
+    <t>40136</t>
+  </si>
+  <si>
+    <t>33002011</t>
+  </si>
+  <si>
+    <t>郝先生</t>
+  </si>
+  <si>
+    <t>40156</t>
+  </si>
+  <si>
+    <t>33002012</t>
+  </si>
+  <si>
+    <t>冯老夫子</t>
+  </si>
+  <si>
+    <t>40157</t>
+  </si>
+  <si>
     <t>34002001</t>
   </si>
   <si>
     <t>慕容龙城</t>
   </si>
   <si>
+    <t>200032</t>
+  </si>
+  <si>
+    <t>40139</t>
+  </si>
+  <si>
     <t>34002002</t>
   </si>
   <si>
     <t>角木蛟</t>
   </si>
   <si>
+    <t>40141</t>
+  </si>
+  <si>
     <t>34002003</t>
   </si>
   <si>
     <t>亢金龙</t>
   </si>
   <si>
+    <t>40142</t>
+  </si>
+  <si>
     <t>34002004</t>
   </si>
   <si>
     <t>氐土貉</t>
   </si>
   <si>
+    <t>40143</t>
+  </si>
+  <si>
     <t>34002005</t>
   </si>
   <si>
     <t>房日兔</t>
   </si>
   <si>
+    <t>40144</t>
+  </si>
+  <si>
     <t>34002006</t>
   </si>
   <si>
     <t>心月狐</t>
   </si>
   <si>
+    <t>40145</t>
+  </si>
+  <si>
     <t>34002007</t>
   </si>
   <si>
     <t>尾火虎</t>
   </si>
   <si>
+    <t>40146</t>
+  </si>
+  <si>
     <t>34002008</t>
   </si>
   <si>
     <t>箕水豹</t>
   </si>
   <si>
+    <t>40147</t>
+  </si>
+  <si>
     <t>34002009</t>
   </si>
   <si>
     <t>斗木獬</t>
   </si>
   <si>
+    <t>40148</t>
+  </si>
+  <si>
     <t>34002010</t>
   </si>
   <si>
     <t>牛金牛</t>
   </si>
   <si>
+    <t>40149</t>
+  </si>
+  <si>
     <t>34002011</t>
   </si>
   <si>
     <t>女土蝠</t>
   </si>
   <si>
+    <t>40150</t>
+  </si>
+  <si>
     <t>34002012</t>
   </si>
   <si>
     <t>虚日鼠</t>
   </si>
   <si>
+    <t>40151</t>
+  </si>
+  <si>
     <t>34002013</t>
   </si>
   <si>
     <t>危月燕</t>
   </si>
   <si>
+    <t>40152</t>
+  </si>
+  <si>
     <t>34002014</t>
   </si>
   <si>
     <t>蒙古精锐骑兵</t>
   </si>
   <si>
+    <t>40153</t>
+  </si>
+  <si>
     <t>34002015</t>
   </si>
   <si>
     <t>蒙古精锐刺客</t>
+  </si>
+  <si>
+    <t>40154</t>
+  </si>
+  <si>
+    <t>34002016</t>
+  </si>
+  <si>
+    <t>魔教贴身护法</t>
+  </si>
+  <si>
+    <t>40140</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D220"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2094,156 +2280,156 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="D11" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2257,172 +2443,172 @@
         <v>53</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="C17" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="D17" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="D19" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="D20" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="D22" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>93</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>69</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>101</v>
@@ -2436,178 +2622,178 @@
         <v>103</v>
       </c>
       <c r="C27" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="0" t="s">
         <v>110</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="D30" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="D32" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>126</v>
-      </c>
       <c r="D33" s="0" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D34" s="0" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="0" t="s">
         <v>134</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="0" t="s">
         <v>137</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="D39" s="0" t="s">
         <v>144</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40">
@@ -2618,290 +2804,290 @@
         <v>146</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>149</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="D42" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="0" t="s">
         <v>156</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="D45" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="D46" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="D47" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="D49" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="D50" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>186</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C52" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="D53" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="0" t="s">
         <v>196</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="D55" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="D58" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>214</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="C60" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -2912,80 +3098,80 @@
         <v>219</v>
       </c>
       <c r="C61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="C62" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
         <v>224</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D63" s="0" t="s">
-        <v>135</v>
+        <v>228</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>69</v>
+        <v>231</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>232</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>235</v>
+        <v>72</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>236</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -2996,7 +3182,7 @@
         <v>238</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>239</v>
@@ -3024,7 +3210,7 @@
         <v>245</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>246</v>
@@ -3038,7 +3224,7 @@
         <v>248</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>57</v>
+        <v>223</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>249</v>
@@ -3052,63 +3238,63 @@
         <v>251</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>58</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>263</v>
+        <v>72</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>264</v>
@@ -3122,1956 +3308,2026 @@
         <v>266</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>69</v>
+        <v>271</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>69</v>
+        <v>296</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>69</v>
-      </c>
       <c r="D86" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>288</v>
+        <v>6</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>288</v>
+        <v>6</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>141</v>
+        <v>296</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>104</v>
+        <v>321</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>325</v>
+        <v>6</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>57</v>
+        <v>335</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>69</v>
+        <v>339</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>341</v>
+        <v>72</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>345</v>
+        <v>6</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>141</v>
+        <v>352</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>242</v>
+        <v>356</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>267</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>73</v>
+        <v>296</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>104</v>
+        <v>374</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>301</v>
+        <v>375</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>282</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>374</v>
+        <v>6</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>378</v>
+        <v>192</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>379</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>73</v>
+        <v>386</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>242</v>
+        <v>390</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>243</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>391</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>242</v>
+        <v>399</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>164</v>
+        <v>223</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>165</v>
+        <v>403</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>399</v>
+        <v>223</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>169</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>402</v>
+        <v>166</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>403</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>69</v>
+        <v>411</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>406</v>
+        <v>171</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>69</v>
+        <v>414</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C125" s="0" t="s">
-        <v>419</v>
+        <v>72</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>104</v>
+        <v>431</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="0" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>69</v>
+        <v>435</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>194</v>
+        <v>436</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>432</v>
+        <v>6</v>
       </c>
       <c r="D129" s="0" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="C130" s="0" t="s">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="D130" s="0" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C131" s="0" t="s">
-        <v>104</v>
+        <v>445</v>
       </c>
       <c r="D131" s="0" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="D132" s="0" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>445</v>
+        <v>6</v>
       </c>
       <c r="D133" s="0" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="0" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="C134" s="0" t="s">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="D134" s="0" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="0" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="C135" s="0" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D135" s="0" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C136" s="0" t="s">
-        <v>242</v>
+        <v>462</v>
       </c>
       <c r="D136" s="0" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="C137" s="0" t="s">
-        <v>242</v>
+        <v>466</v>
       </c>
       <c r="D137" s="0" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C138" s="0" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="C139" s="0" t="s">
-        <v>466</v>
+        <v>223</v>
       </c>
       <c r="D139" s="0" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="C140" s="0" t="s">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="D140" s="0" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D141" s="0" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="0" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="D142" s="0" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D143" s="0" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="C144" s="0" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="D144" s="0" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="D145" s="0" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="C146" s="0" t="s">
-        <v>104</v>
+        <v>499</v>
       </c>
       <c r="D146" s="0" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C147" s="0" t="s">
-        <v>69</v>
+        <v>503</v>
       </c>
       <c r="D147" s="0" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="C148" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D148" s="0" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C149" s="0" t="s">
-        <v>503</v>
+        <v>72</v>
       </c>
       <c r="D149" s="0" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C150" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D150" s="0" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="C151" s="0" t="s">
-        <v>50</v>
+        <v>516</v>
       </c>
       <c r="D151" s="0" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="C152" s="0" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="D152" s="0" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="C153" s="0" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="D153" s="0" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="C154" s="0" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D154" s="0" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C155" s="0" t="s">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="D155" s="0" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="0" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="C156" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D156" s="0" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C157" s="0" t="s">
-        <v>527</v>
+        <v>223</v>
       </c>
       <c r="D157" s="0" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B158" s="0" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C158" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D158" s="0" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="D159" s="0" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B160" s="0" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D160" s="0" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="C161" s="0" t="s">
-        <v>242</v>
+        <v>516</v>
       </c>
       <c r="D161" s="0" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C162" s="0" t="s">
-        <v>242</v>
+        <v>550</v>
       </c>
       <c r="D162" s="0" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="C163" s="0" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="D163" s="0" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="C164" s="0" t="s">
-        <v>141</v>
+        <v>223</v>
       </c>
       <c r="D164" s="0" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="C165" s="0" t="s">
-        <v>553</v>
+        <v>6</v>
       </c>
       <c r="D165" s="0" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C166" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D166" s="0" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C167" s="0" t="s">
-        <v>242</v>
+        <v>566</v>
       </c>
       <c r="D167" s="0" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="C168" s="0" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="D168" s="0" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="C169" s="0" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D169" s="0" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C170" s="0" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D170" s="0" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="D171" s="0" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D172" s="0" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>242</v>
+        <v>192</v>
       </c>
       <c r="D173" s="0" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>580</v>
+        <v>72</v>
       </c>
       <c r="D174" s="0" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C175" s="0" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="D175" s="0" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="0" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="C176" s="0" t="s">
-        <v>242</v>
+        <v>593</v>
       </c>
       <c r="D176" s="0" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="C177" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D177" s="0" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C178" s="0" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="D178" s="0" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="C179" s="0" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="D179" s="0" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="C180" s="0" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="D180" s="0" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0" t="s">
-        <v>594</v>
+        <v>607</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C181" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D181" s="0" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0" t="s">
-        <v>597</v>
+        <v>610</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D182" s="0" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D184" s="0" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D185" s="0" t="s">
-        <v>596</v>
+        <v>621</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0" t="s">
-        <v>605</v>
+        <v>622</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>606</v>
+        <v>623</v>
       </c>
       <c r="C186" s="0" t="s">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="D186" s="0" t="s">
-        <v>596</v>
+        <v>624</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="C187" s="0" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D187" s="0" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D188" s="0" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D189" s="0" t="s">
-        <v>4</v>
+        <v>633</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="0" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="C190" s="0" t="s">
-        <v>325</v>
+        <v>223</v>
       </c>
       <c r="D190" s="0" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="C191" s="0" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D191" s="0" t="s">
-        <v>596</v>
+        <v>639</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="C192" s="0" t="s">
-        <v>242</v>
+        <v>335</v>
       </c>
       <c r="D192" s="0" t="s">
-        <v>596</v>
+        <v>642</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0" t="s">
-        <v>619</v>
+        <v>643</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>620</v>
+        <v>644</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D193" s="0" t="s">
-        <v>596</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0" t="s">
-        <v>621</v>
+        <v>646</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>622</v>
+        <v>647</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="D194" s="0" t="s">
-        <v>596</v>
+        <v>648</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0" t="s">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>624</v>
+        <v>650</v>
       </c>
       <c r="C195" s="0" t="s">
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="D195" s="0" t="s">
-        <v>596</v>
+        <v>651</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
       <c r="D196" s="0" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="0" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="D197" s="0" t="s">
-        <v>596</v>
+        <v>657</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0" t="s">
-        <v>630</v>
+        <v>658</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>631</v>
+        <v>659</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c r="D198" s="0" t="s">
-        <v>596</v>
+        <v>660</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0" t="s">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>633</v>
+        <v>662</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="D199" s="0" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0" t="s">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="C200" s="0" t="s">
-        <v>636</v>
+        <v>72</v>
       </c>
       <c r="D200" s="0" t="s">
-        <v>565</v>
+        <v>666</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0" t="s">
-        <v>637</v>
+        <v>667</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>638</v>
+        <v>668</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="D201" s="0" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0" t="s">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>50</v>
+        <v>672</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>627</v>
+        <v>673</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0" t="s">
-        <v>641</v>
+        <v>674</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>642</v>
+        <v>675</v>
       </c>
       <c r="C203" s="0" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="D203" s="0" t="s">
-        <v>627</v>
+        <v>676</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="0" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="D204" s="0" t="s">
-        <v>627</v>
+        <v>679</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>50</v>
+        <v>682</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>627</v>
+        <v>683</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0" t="s">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>648</v>
+        <v>685</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>627</v>
+        <v>686</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0" t="s">
-        <v>649</v>
+        <v>687</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>650</v>
+        <v>688</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>627</v>
+        <v>689</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D208" s="0" t="s">
-        <v>627</v>
+        <v>692</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="C209" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D209" s="0" t="s">
-        <v>627</v>
+        <v>695</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0" t="s">
-        <v>655</v>
+        <v>696</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>656</v>
+        <v>697</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D210" s="0" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0" t="s">
-        <v>657</v>
+        <v>699</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0" t="s">
-        <v>661</v>
+        <v>705</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>662</v>
+        <v>706</v>
       </c>
       <c r="C213" s="0" t="s">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0" t="s">
-        <v>663</v>
+        <v>708</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>664</v>
+        <v>709</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>69</v>
+        <v>6</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>627</v>
+        <v>710</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0" t="s">
-        <v>665</v>
+        <v>711</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>666</v>
+        <v>712</v>
       </c>
       <c r="C215" s="0" t="s">
-        <v>553</v>
+        <v>6</v>
       </c>
       <c r="D215" s="0" t="s">
-        <v>596</v>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="0" t="s">
+        <v>714</v>
+      </c>
+      <c r="B216" s="0" t="s">
+        <v>715</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D216" s="0" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="0" t="s">
+        <v>717</v>
+      </c>
+      <c r="B217" s="0" t="s">
+        <v>718</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="0" t="s">
+        <v>720</v>
+      </c>
+      <c r="B218" s="0" t="s">
+        <v>721</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="0" t="s">
+        <v>723</v>
+      </c>
+      <c r="B219" s="0" t="s">
+        <v>724</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="D219" s="0" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="0" t="s">
+        <v>726</v>
+      </c>
+      <c r="B220" s="0" t="s">
+        <v>727</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="0" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>

--- a/docs/战斗角色简表.xlsx
+++ b/docs/战斗角色简表.xlsx
@@ -44,7 +44,7 @@
     <t>104106</t>
   </si>
   <si>
-    <t>30403|30402|15003</t>
+    <t>30403|30402|10024</t>
   </si>
   <si>
     <t>00001</t>
@@ -68,7 +68,7 @@
     <t>101106</t>
   </si>
   <si>
-    <t>30203|30202|10027</t>
+    <t>30203|30202|10025</t>
   </si>
   <si>
     <t>00001000</t>
@@ -80,7 +80,7 @@
     <t>102206</t>
   </si>
   <si>
-    <t>30302|16001|15011</t>
+    <t>30302|16001|10025</t>
   </si>
   <si>
     <t>000010000</t>
@@ -92,7 +92,7 @@
     <t>105106</t>
   </si>
   <si>
-    <t>30503|30502|10026</t>
+    <t>30503|30502|10025</t>
   </si>
   <si>
     <t>0000100001</t>
@@ -104,7 +104,7 @@
     <t>100206</t>
   </si>
   <si>
-    <t>30602|30601|10028</t>
+    <t>30602|30601|10025</t>
   </si>
   <si>
     <t>000010001</t>
